--- a/VyTrackQA2Users.xlsx
+++ b/VyTrackQA2Users.xlsx
@@ -4,15 +4,95 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="50772" windowHeight="17952"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="16212" windowHeight="5808"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>UserUser123</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Stamm</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>salesmanager101</t>
+  </si>
+  <si>
+    <t>storemanager51</t>
+  </si>
+  <si>
+    <t>storemanager52</t>
+  </si>
+  <si>
+    <t>salesmanager102</t>
+  </si>
+  <si>
+    <t>Edd</t>
+  </si>
+  <si>
+    <t>Liza</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Fritsch</t>
+  </si>
+  <si>
+    <t>Prohaska</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Medhurst</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,14 +422,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
